--- a/outcome/appendix/forecast/Pertussis.xlsx
+++ b/outcome/appendix/forecast/Pertussis.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>1328.23536581332</v>
+        <v>1328.23535799475</v>
       </c>
       <c r="C2" t="n">
-        <v>1019.842141985</v>
+        <v>1019.84213577614</v>
       </c>
       <c r="D2" t="n">
-        <v>886.31150217932</v>
+        <v>886.31149668817</v>
       </c>
       <c r="E2" t="n">
-        <v>1727.8759103846</v>
+        <v>1727.87590055886</v>
       </c>
       <c r="F2" t="n">
-        <v>1985.10504590214</v>
+        <v>1985.10503482226</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>1141</v>
       </c>
       <c r="I2" t="n">
-        <v>187.235365813325</v>
+        <v>187.235357994748</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>1578.92448824244</v>
+        <v>1578.92448786053</v>
       </c>
       <c r="C3" t="n">
-        <v>1148.45503041492</v>
+        <v>1148.45502706311</v>
       </c>
       <c r="D3" t="n">
-        <v>969.686506066944</v>
+        <v>969.686501851646</v>
       </c>
       <c r="E3" t="n">
-        <v>2167.08979762844</v>
+        <v>2167.08980284359</v>
       </c>
       <c r="F3" t="n">
-        <v>2560.82343982296</v>
+        <v>2560.82344954697</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>738</v>
       </c>
       <c r="I3" t="n">
-        <v>840.924488242438</v>
+        <v>840.924487860531</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>2590.62604144802</v>
+        <v>2590.62604171338</v>
       </c>
       <c r="C4" t="n">
-        <v>1811.08134804213</v>
+        <v>1811.08134297745</v>
       </c>
       <c r="D4" t="n">
-        <v>1497.13389758416</v>
+        <v>1497.13389107876</v>
       </c>
       <c r="E4" t="n">
-        <v>3697.82734024179</v>
+        <v>3697.82735121314</v>
       </c>
       <c r="F4" t="n">
-        <v>4460.5203631552</v>
+        <v>4460.52038309219</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>874</v>
       </c>
       <c r="I4" t="n">
-        <v>1716.62604144802</v>
+        <v>1716.62604171338</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2618.31927384637</v>
+        <v>2618.31928197266</v>
       </c>
       <c r="C5" t="n">
-        <v>1724.72754837266</v>
+        <v>1724.72754714278</v>
       </c>
       <c r="D5" t="n">
-        <v>1381.11645477208</v>
+        <v>1381.11645096677</v>
       </c>
       <c r="E5" t="n">
-        <v>3963.40225003643</v>
+        <v>3963.40227725551</v>
       </c>
       <c r="F5" t="n">
-        <v>4930.32756284657</v>
+        <v>4930.32760642655</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>479</v>
       </c>
       <c r="I5" t="n">
-        <v>2139.31927384637</v>
+        <v>2139.31928197266</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>2898.31604821748</v>
+        <v>2898.31605043705</v>
       </c>
       <c r="C6" t="n">
-        <v>1852.88492826426</v>
+        <v>1852.88492151927</v>
       </c>
       <c r="D6" t="n">
-        <v>1460.16650623352</v>
+        <v>1460.16649747312</v>
       </c>
       <c r="E6" t="n">
-        <v>4518.56578042446</v>
+        <v>4518.56580349953</v>
       </c>
       <c r="F6" t="n">
-        <v>5708.41042668</v>
+        <v>5708.41046880107</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>277</v>
       </c>
       <c r="I6" t="n">
-        <v>2621.31604821748</v>
+        <v>2621.31605043705</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>3273.94520635011</v>
+        <v>3273.94520812106</v>
       </c>
       <c r="C7" t="n">
-        <v>2002.55005647872</v>
+        <v>2002.55004760103</v>
       </c>
       <c r="D7" t="n">
-        <v>1541.1872852406</v>
+        <v>1541.18727429862</v>
       </c>
       <c r="E7" t="n">
-        <v>5331.13000596419</v>
+        <v>5331.13003493503</v>
       </c>
       <c r="F7" t="n">
-        <v>6889.9653712706</v>
+        <v>6889.96542633959</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>159</v>
       </c>
       <c r="I7" t="n">
-        <v>3114.94520635011</v>
+        <v>3114.94520812106</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>3999.91115675351</v>
+        <v>3999.9111553478</v>
       </c>
       <c r="C8" t="n">
-        <v>2377.57591761515</v>
+        <v>2377.57590397857</v>
       </c>
       <c r="D8" t="n">
-        <v>1801.94546356674</v>
+        <v>1801.94544802696</v>
       </c>
       <c r="E8" t="n">
-        <v>6699.13240746116</v>
+        <v>6699.13244055605</v>
       </c>
       <c r="F8" t="n">
-        <v>8786.2413856545</v>
+        <v>8786.24145335055</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>142</v>
       </c>
       <c r="I8" t="n">
-        <v>3857.91115675351</v>
+        <v>3857.9111553478</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5073.36603781939</v>
+        <v>5073.36604822442</v>
       </c>
       <c r="C9" t="n">
-        <v>2919.14199493393</v>
+        <v>2919.1419836168</v>
       </c>
       <c r="D9" t="n">
-        <v>2174.1105379846</v>
+        <v>2174.1105226362</v>
       </c>
       <c r="E9" t="n">
-        <v>8772.82465862599</v>
+        <v>8772.8247276738</v>
       </c>
       <c r="F9" t="n">
-        <v>11699.5747894186</v>
+        <v>11699.5749170456</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>142</v>
       </c>
       <c r="I9" t="n">
-        <v>4931.36603781939</v>
+        <v>4931.36604822442</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>3674.34872230303</v>
+        <v>3674.34872951853</v>
       </c>
       <c r="C10" t="n">
-        <v>2046.06168061252</v>
+        <v>2046.06167184259</v>
       </c>
       <c r="D10" t="n">
-        <v>1497.2921106391</v>
+        <v>1497.29209919255</v>
       </c>
       <c r="E10" t="n">
-        <v>6561.11303506817</v>
+        <v>6561.11308816845</v>
       </c>
       <c r="F10" t="n">
-        <v>8897.93961511766</v>
+        <v>8897.93971557793</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>201</v>
       </c>
       <c r="I10" t="n">
-        <v>3473.34872230303</v>
+        <v>3473.34872951853</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2277.56222497604</v>
+        <v>2277.56222939692</v>
       </c>
       <c r="C11" t="n">
-        <v>1225.41772804358</v>
+        <v>1225.41772204318</v>
       </c>
       <c r="D11" t="n">
-        <v>880.335962938846</v>
+        <v>880.335955390622</v>
       </c>
       <c r="E11" t="n">
-        <v>4206.25502235068</v>
+        <v>4206.25505868933</v>
       </c>
       <c r="F11" t="n">
-        <v>5805.42893441355</v>
+        <v>5805.42900483304</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>267</v>
       </c>
       <c r="I11" t="n">
-        <v>2010.56222497604</v>
+        <v>2010.56222939692</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2047.84725265042</v>
+        <v>2047.84725325628</v>
       </c>
       <c r="C12" t="n">
-        <v>1069.93907139094</v>
+        <v>1069.93906405703</v>
       </c>
       <c r="D12" t="n">
-        <v>756.592243138781</v>
+        <v>756.592235040812</v>
       </c>
       <c r="E12" t="n">
-        <v>3892.32438240685</v>
+        <v>3892.32441079545</v>
       </c>
       <c r="F12" t="n">
-        <v>5453.21378687568</v>
+        <v>5453.2138465211</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>291</v>
       </c>
       <c r="I12" t="n">
-        <v>1756.84725265042</v>
+        <v>1756.84725325628</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>1967.54451442627</v>
+        <v>1967.54450816711</v>
       </c>
       <c r="C13" t="n">
-        <v>1000.35688114942</v>
+        <v>1000.35687033177</v>
       </c>
       <c r="D13" t="n">
-        <v>697.087734411797</v>
+        <v>697.0877240078</v>
       </c>
       <c r="E13" t="n">
-        <v>3840.68970035004</v>
+        <v>3840.68971679451</v>
       </c>
       <c r="F13" t="n">
-        <v>5456.04138878113</v>
+        <v>5456.04143333216</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>294</v>
       </c>
       <c r="I13" t="n">
-        <v>1673.54451442627</v>
+        <v>1673.54450816711</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>1810.12673195461</v>
+        <v>1810.12672444157</v>
       </c>
       <c r="C14" t="n">
-        <v>869.896324372421</v>
+        <v>869.896312994111</v>
       </c>
       <c r="D14" t="n">
-        <v>588.043019587294</v>
+        <v>588.04300906322</v>
       </c>
       <c r="E14" t="n">
-        <v>3733.35262875175</v>
+        <v>3733.35264579125</v>
       </c>
       <c r="F14" t="n">
-        <v>5457.5728871948</v>
+        <v>5457.572936821</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>205</v>
       </c>
       <c r="I14" t="n">
-        <v>1605.12673195461</v>
+        <v>1605.12672444157</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2100.49196305558</v>
+        <v>2100.49195873273</v>
       </c>
       <c r="C15" t="n">
-        <v>970.44209227886</v>
+        <v>970.442080340157</v>
       </c>
       <c r="D15" t="n">
-        <v>642.210271725846</v>
+        <v>642.210260272753</v>
       </c>
       <c r="E15" t="n">
-        <v>4501.92722865102</v>
+        <v>4501.9272643371</v>
       </c>
       <c r="F15" t="n">
-        <v>6713.77941432756</v>
+        <v>6713.77950235071</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>115</v>
       </c>
       <c r="I15" t="n">
-        <v>1985.49196305558</v>
+        <v>1985.49195873273</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3566.72247871903</v>
+        <v>3566.722479584</v>
       </c>
       <c r="C16" t="n">
-        <v>1596.93068831601</v>
+        <v>1596.93067118469</v>
       </c>
       <c r="D16" t="n">
-        <v>1039.03472338302</v>
+        <v>1039.03470607697</v>
       </c>
       <c r="E16" t="n">
-        <v>7881.81941327402</v>
+        <v>7881.819499373</v>
       </c>
       <c r="F16" t="n">
-        <v>11942.2735408878</v>
+        <v>11942.2737375169</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>220</v>
       </c>
       <c r="I16" t="n">
-        <v>3346.72247871903</v>
+        <v>3346.722479584</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>3482.21195773999</v>
+        <v>3482.21196558208</v>
       </c>
       <c r="C17" t="n">
-        <v>1495.95106917878</v>
+        <v>1495.95105452432</v>
       </c>
       <c r="D17" t="n">
-        <v>951.817392122289</v>
+        <v>951.817376594536</v>
       </c>
       <c r="E17" t="n">
-        <v>8010.91549644677</v>
+        <v>8010.91560833424</v>
       </c>
       <c r="F17" t="n">
-        <v>12393.7019950822</v>
+        <v>12393.7022434286</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>308</v>
       </c>
       <c r="I17" t="n">
-        <v>3174.21195773999</v>
+        <v>3174.21196558208</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>3955.05780781605</v>
+        <v>3955.05780982721</v>
       </c>
       <c r="C18" t="n">
-        <v>1644.98260266715</v>
+        <v>1644.9825823101</v>
       </c>
       <c r="D18" t="n">
-        <v>1028.47021968512</v>
+        <v>1028.47019978339</v>
       </c>
       <c r="E18" t="n">
-        <v>9389.39127971944</v>
+        <v>9389.39140199265</v>
       </c>
       <c r="F18" t="n">
-        <v>14764.9373980338</v>
+        <v>14764.9376859898</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>427</v>
       </c>
       <c r="I18" t="n">
-        <v>3528.05780781605</v>
+        <v>3528.05780982721</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>4389.32573161301</v>
+        <v>4389.32573060874</v>
       </c>
       <c r="C19" t="n">
-        <v>1762.33242540471</v>
+        <v>1762.33240070093</v>
       </c>
       <c r="D19" t="n">
-        <v>1080.98758318354</v>
+        <v>1080.98755995305</v>
       </c>
       <c r="E19" t="n">
-        <v>10783.3222528559</v>
+        <v>10783.3223946433</v>
       </c>
       <c r="F19" t="n">
-        <v>17260.1176035246</v>
+        <v>17260.1179499378</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>519</v>
       </c>
       <c r="I19" t="n">
-        <v>3870.32573161301</v>
+        <v>3870.32573060874</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>5408.62171466045</v>
+        <v>5408.62171161371</v>
       </c>
       <c r="C20" t="n">
-        <v>2108.70663247335</v>
+        <v>2108.70660068041</v>
       </c>
       <c r="D20" t="n">
-        <v>1273.00855300555</v>
+        <v>1273.00852379239</v>
       </c>
       <c r="E20" t="n">
-        <v>13671.4707553986</v>
+        <v>13671.4709400159</v>
       </c>
       <c r="F20" t="n">
-        <v>22207.8328322407</v>
+        <v>22207.8332936472</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>820</v>
       </c>
       <c r="I20" t="n">
-        <v>4588.62171466045</v>
+        <v>4588.62171161371</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>6822.53689461463</v>
+        <v>6822.53690322939</v>
       </c>
       <c r="C21" t="n">
-        <v>2583.16784613048</v>
+        <v>2583.16781000164</v>
       </c>
       <c r="D21" t="n">
-        <v>1534.84758138263</v>
+        <v>1534.84754721323</v>
       </c>
       <c r="E21" t="n">
-        <v>17741.8935628011</v>
+        <v>17741.8938471723</v>
       </c>
       <c r="F21" t="n">
-        <v>29245.6348220984</v>
+        <v>29245.6355139551</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>1227</v>
       </c>
       <c r="I21" t="n">
-        <v>5595.53689461463</v>
+        <v>5595.53690322939</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>4955.00337104573</v>
+        <v>4955.00337944013</v>
       </c>
       <c r="C22" t="n">
-        <v>1808.75589220603</v>
+        <v>1808.75586627539</v>
       </c>
       <c r="D22" t="n">
-        <v>1053.59792431944</v>
+        <v>1053.59790003971</v>
       </c>
       <c r="E22" t="n">
-        <v>13349.2362118562</v>
+        <v>13349.2364414308</v>
       </c>
       <c r="F22" t="n">
-        <v>22410.3552525945</v>
+        <v>22410.3558173389</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>1094</v>
       </c>
       <c r="I22" t="n">
-        <v>3861.00337104573</v>
+        <v>3861.00337944013</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>3079.92753695667</v>
+        <v>3079.92754078169</v>
       </c>
       <c r="C23" t="n">
-        <v>1081.2454342346</v>
+        <v>1081.24541727481</v>
       </c>
       <c r="D23" t="n">
-        <v>616.60257675655</v>
+        <v>616.602561409046</v>
       </c>
       <c r="E23" t="n">
-        <v>8616.6321064405</v>
+        <v>8616.63225802415</v>
       </c>
       <c r="F23" t="n">
-        <v>14749.7011701649</v>
+        <v>14749.7015540035</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>825</v>
       </c>
       <c r="I23" t="n">
-        <v>2254.92753695667</v>
+        <v>2254.92754078169</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>2768.06834596828</v>
+        <v>2768.06834571668</v>
       </c>
       <c r="C24" t="n">
-        <v>941.193996441359</v>
+        <v>941.19397973834</v>
       </c>
       <c r="D24" t="n">
-        <v>527.48293286845</v>
+        <v>527.482918438802</v>
       </c>
       <c r="E24" t="n">
-        <v>7986.83768376727</v>
+        <v>7986.83781910288</v>
       </c>
       <c r="F24" t="n">
-        <v>13890.8409483884</v>
+        <v>13890.841305703</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>1148</v>
       </c>
       <c r="I24" t="n">
-        <v>1620.06834596828</v>
+        <v>1620.06834571668</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2662.76310111054</v>
+        <v>2662.76309115756</v>
       </c>
       <c r="C25" t="n">
-        <v>878.693520604368</v>
+        <v>878.693501125437</v>
       </c>
       <c r="D25" t="n">
-        <v>484.495968232233</v>
+        <v>484.495952628389</v>
       </c>
       <c r="E25" t="n">
-        <v>7907.97743569562</v>
+        <v>7907.9775466263</v>
       </c>
       <c r="F25" t="n">
-        <v>13959.688761484</v>
+        <v>13959.6890850039</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>2254</v>
       </c>
       <c r="I25" t="n">
-        <v>408.763101110545</v>
+        <v>408.763091157562</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2448.75422116776</v>
+        <v>2448.75420987494</v>
       </c>
       <c r="C26" t="n">
-        <v>766.095191551996</v>
+        <v>766.095172765219</v>
       </c>
       <c r="D26" t="n">
-        <v>410.306439665532</v>
+        <v>410.306425147819</v>
       </c>
       <c r="E26" t="n">
-        <v>7655.79609200905</v>
+        <v>7655.79620338393</v>
       </c>
       <c r="F26" t="n">
-        <v>13876.5638643146</v>
+        <v>13876.5642029067</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>2354</v>
       </c>
       <c r="I26" t="n">
-        <v>94.7542211677555</v>
+        <v>94.7542098749382</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2841.0121966984</v>
+        <v>2841.01218944469</v>
       </c>
       <c r="C27" t="n">
-        <v>855.115290427849</v>
+        <v>855.115270024412</v>
       </c>
       <c r="D27" t="n">
-        <v>448.425560766938</v>
+        <v>448.425544850797</v>
       </c>
       <c r="E27" t="n">
-        <v>9218.50062935989</v>
+        <v>9218.50079458949</v>
       </c>
       <c r="F27" t="n">
-        <v>17031.3393450323</v>
+        <v>17031.3398294679</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>2576</v>
       </c>
       <c r="I27" t="n">
-        <v>265.012196698397</v>
+        <v>265.012189444693</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>4809.81080641437</v>
+        <v>4809.81080509731</v>
       </c>
       <c r="C28" t="n">
-        <v>1406.91339666152</v>
+        <v>1406.91336509652</v>
       </c>
       <c r="D28" t="n">
-        <v>726.363426924676</v>
+        <v>726.363401833129</v>
       </c>
       <c r="E28" t="n">
-        <v>16041.245677344</v>
+        <v>16041.2460142805</v>
       </c>
       <c r="F28" t="n">
-        <v>30057.2963405429</v>
+        <v>30057.2973002288</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>3747</v>
       </c>
       <c r="I28" t="n">
-        <v>1062.81080641437</v>
+        <v>1062.81080509731</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>4697.15213730399</v>
+        <v>4697.15214555481</v>
       </c>
       <c r="C29" t="n">
-        <v>1316.98530432897</v>
+        <v>1316.98527578658</v>
       </c>
       <c r="D29" t="n">
-        <v>664.37412014952</v>
+        <v>664.374097236998</v>
       </c>
       <c r="E29" t="n">
-        <v>16315.1926279059</v>
+        <v>16315.1930230652</v>
       </c>
       <c r="F29" t="n">
-        <v>31214.726795696</v>
+        <v>31214.7279113513</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>3415</v>
       </c>
       <c r="I29" t="n">
-        <v>1282.15213730399</v>
+        <v>1282.15214555481</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>5331.29689514137</v>
+        <v>5331.29689508211</v>
       </c>
       <c r="C30" t="n">
-        <v>1445.43037285169</v>
+        <v>1445.43033743453</v>
       </c>
       <c r="D30" t="n">
-        <v>715.895569994621</v>
+        <v>715.895542854616</v>
       </c>
       <c r="E30" t="n">
-        <v>19123.3493084786</v>
+        <v>19123.3497568392</v>
       </c>
       <c r="F30" t="n">
-        <v>37195.8907659545</v>
+        <v>37195.8920851522</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>3991</v>
       </c>
       <c r="I30" t="n">
-        <v>1340.29689514137</v>
+        <v>1340.29689508211</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>5913.60565875711</v>
+        <v>5913.60565452946</v>
       </c>
       <c r="C31" t="n">
-        <v>1546.01696316147</v>
+        <v>1546.01692245476</v>
       </c>
       <c r="D31" t="n">
-        <v>750.605653077537</v>
+        <v>750.605622778615</v>
       </c>
       <c r="E31" t="n">
-        <v>21963.8832541724</v>
+        <v>21963.883776664</v>
       </c>
       <c r="F31" t="n">
-        <v>43489.8500630899</v>
+        <v>43489.8516432732</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>4213</v>
       </c>
       <c r="I31" t="n">
-        <v>1700.60565875711</v>
+        <v>1700.60565452946</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>7279.50012845649</v>
+        <v>7279.50012068828</v>
       </c>
       <c r="C32" t="n">
-        <v>1846.0193976327</v>
+        <v>1846.0193466602</v>
       </c>
       <c r="D32" t="n">
-        <v>881.420373870366</v>
+        <v>881.420336701734</v>
       </c>
       <c r="E32" t="n">
-        <v>27835.8974680769</v>
+        <v>27835.8981445076</v>
       </c>
       <c r="F32" t="n">
-        <v>55944.4311712014</v>
+        <v>55944.4332567798</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>4234</v>
       </c>
       <c r="I32" t="n">
-        <v>3045.50012845649</v>
+        <v>3045.50012068828</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>9171.69859948274</v>
+        <v>9171.69860649944</v>
       </c>
       <c r="C33" t="n">
-        <v>2256.69096724749</v>
+        <v>2256.69090700843</v>
       </c>
       <c r="D33" t="n">
-        <v>1059.80375156778</v>
+        <v>1059.80370730698</v>
       </c>
       <c r="E33" t="n">
-        <v>36097.5856981261</v>
+        <v>36097.5866720403</v>
       </c>
       <c r="F33" t="n">
-        <v>73626.7123186972</v>
+        <v>73626.7152919282</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>5355</v>
       </c>
       <c r="I33" t="n">
-        <v>3816.69859948274</v>
+        <v>3816.69860649944</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>6671.84096574489</v>
+        <v>6671.84097364852</v>
       </c>
       <c r="C34" t="n">
-        <v>1574.45774609006</v>
+        <v>1574.45770299965</v>
       </c>
       <c r="D34" t="n">
-        <v>722.64521890015</v>
+        <v>722.645187786152</v>
       </c>
       <c r="E34" t="n">
-        <v>27326.1115326361</v>
+        <v>27326.1123088982</v>
       </c>
       <c r="F34" t="n">
-        <v>56882.3100651207</v>
+        <v>56882.3124718689</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>3849</v>
       </c>
       <c r="I34" t="n">
-        <v>2822.84096574489</v>
+        <v>2822.84097364852</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>4156.83851092914</v>
+        <v>4156.83851397766</v>
       </c>
       <c r="C35" t="n">
-        <v>937.254627413734</v>
+        <v>937.254600170932</v>
       </c>
       <c r="D35" t="n">
-        <v>419.538680586491</v>
+        <v>419.538661514976</v>
       </c>
       <c r="E35" t="n">
-        <v>17780.7501606575</v>
+        <v>17780.7506781256</v>
       </c>
       <c r="F35" t="n">
-        <v>37841.9961389412</v>
+        <v>37841.9977879482</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>2594</v>
       </c>
       <c r="I35" t="n">
-        <v>1562.83851092914</v>
+        <v>1562.83851397766</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3737.97341457687</v>
+        <v>3737.97341235729</v>
       </c>
       <c r="C36" t="n">
-        <v>813.053572733515</v>
+        <v>813.053547198525</v>
       </c>
       <c r="D36" t="n">
-        <v>356.814384368683</v>
+        <v>356.81436710931</v>
       </c>
       <c r="E36" t="n">
-        <v>16545.3678713583</v>
+        <v>16545.368346294</v>
       </c>
       <c r="F36" t="n">
-        <v>35832.3209918914</v>
+        <v>35832.3225556068</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>2160</v>
       </c>
       <c r="I36" t="n">
-        <v>1577.97341457687</v>
+        <v>1577.97341235729</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3596.44875699074</v>
+        <v>3596.44874179971</v>
       </c>
       <c r="C37" t="n">
-        <v>756.477322781412</v>
+        <v>756.477295478421</v>
       </c>
       <c r="D37" t="n">
-        <v>325.910840095242</v>
+        <v>325.910822609035</v>
       </c>
       <c r="E37" t="n">
-        <v>16434.3357777005</v>
+        <v>16434.3362057471</v>
       </c>
       <c r="F37" t="n">
-        <v>36174.4232683006</v>
+        <v>36174.4247682049</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>1293</v>
       </c>
       <c r="I37" t="n">
-        <v>2303.44875699074</v>
+        <v>2303.44874179971</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>3308.79638189716</v>
+        <v>3308.79636504701</v>
       </c>
       <c r="C38" t="n">
-        <v>659.11018820919</v>
+        <v>659.110162755329</v>
       </c>
       <c r="D38" t="n">
-        <v>275.567622789589</v>
+        <v>275.567607049416</v>
       </c>
       <c r="E38" t="n">
-        <v>15921.241386217</v>
+        <v>15921.2418112389</v>
       </c>
       <c r="F38" t="n">
-        <v>35978.4515419983</v>
+        <v>35978.4530842011</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>883</v>
       </c>
       <c r="I38" t="n">
-        <v>2425.79638189716</v>
+        <v>2425.79636504701</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>3835.96204274732</v>
+        <v>3835.96203106854</v>
       </c>
       <c r="C39" t="n">
-        <v>734.475442055709</v>
+        <v>734.475414093705</v>
       </c>
       <c r="D39" t="n">
-        <v>300.441147118106</v>
+        <v>300.441129867081</v>
       </c>
       <c r="E39" t="n">
-        <v>19163.0542300865</v>
+        <v>19163.0548073333</v>
       </c>
       <c r="F39" t="n">
-        <v>44137.6517409128</v>
+        <v>44137.6538144145</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>538</v>
       </c>
       <c r="I39" t="n">
-        <v>3297.96204274732</v>
+        <v>3297.96203106854</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>6477.22616063055</v>
+        <v>6477.22615563541</v>
       </c>
       <c r="C40" t="n">
-        <v>1207.20209919096</v>
+        <v>1207.20205486867</v>
       </c>
       <c r="D40" t="n">
-        <v>486.508207545542</v>
+        <v>486.508180017006</v>
       </c>
       <c r="E40" t="n">
-        <v>33194.4260033835</v>
+        <v>33194.4271066085</v>
       </c>
       <c r="F40" t="n">
-        <v>77453.5649138382</v>
+        <v>77453.5688256829</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>821</v>
       </c>
       <c r="I40" t="n">
-        <v>5656.22616063055</v>
+        <v>5656.22615563541</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>6326.26152632703</v>
+        <v>6326.26153422377</v>
       </c>
       <c r="C41" t="n">
-        <v>1127.54064227173</v>
+        <v>1127.54060153077</v>
       </c>
       <c r="D41" t="n">
-        <v>443.311473360622</v>
+        <v>443.311448171662</v>
       </c>
       <c r="E41" t="n">
-        <v>33819.7073430655</v>
+        <v>33819.7085796159</v>
       </c>
       <c r="F41" t="n">
-        <v>80622.9326674514</v>
+        <v>80622.937059691</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>1074</v>
       </c>
       <c r="I41" t="n">
-        <v>5252.26152632703</v>
+        <v>5252.26153422377</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>7175.8320347402</v>
+        <v>7175.83203108603</v>
       </c>
       <c r="C42" t="n">
-        <v>1234.41179802381</v>
+        <v>1234.41174970666</v>
       </c>
       <c r="D42" t="n">
-        <v>475.895615101107</v>
+        <v>475.895586289567</v>
       </c>
       <c r="E42" t="n">
-        <v>39667.3173617534</v>
+        <v>39667.3187876381</v>
       </c>
       <c r="F42" t="n">
-        <v>96181.9929800993</v>
+        <v>96181.9982147947</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>1334</v>
       </c>
       <c r="I42" t="n">
-        <v>5841.8320347402</v>
+        <v>5841.83203108603</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>7955.52999998382</v>
+        <v>7955.52999036676</v>
       </c>
       <c r="C43" t="n">
-        <v>1317.22109277868</v>
+        <v>1317.2210385849</v>
       </c>
       <c r="D43" t="n">
-        <v>497.177465089463</v>
+        <v>497.177433625563</v>
       </c>
       <c r="E43" t="n">
-        <v>45591.3806288068</v>
+        <v>45591.3822895835</v>
       </c>
       <c r="F43" t="n">
-        <v>112583.423835842</v>
+        <v>112583.430082819</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>1512</v>
       </c>
       <c r="I43" t="n">
-        <v>6443.52999998382</v>
+        <v>6443.52999036676</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>9783.01059616357</v>
+        <v>9783.01058092558</v>
       </c>
       <c r="C44" t="n">
-        <v>1568.9970680862</v>
+        <v>1568.99700127451</v>
       </c>
       <c r="D44" t="n">
-        <v>581.832116071537</v>
+        <v>581.832078049472</v>
       </c>
       <c r="E44" t="n">
-        <v>57772.76386119</v>
+        <v>57772.7660026585</v>
       </c>
       <c r="F44" t="n">
-        <v>144848.7240263</v>
+        <v>144848.732226621</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>2767</v>
       </c>
       <c r="I44" t="n">
-        <v>7016.01059616357</v>
+        <v>7016.01058092558</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>12311.9579546545</v>
+        <v>12311.957957948</v>
       </c>
       <c r="C45" t="n">
-        <v>1913.58164586354</v>
+        <v>1913.58156587184</v>
       </c>
       <c r="D45" t="n">
-        <v>697.357930648526</v>
+        <v>697.357885203557</v>
       </c>
       <c r="E45" t="n">
-        <v>74886.5024462015</v>
+        <v>74886.5054293436</v>
       </c>
       <c r="F45" t="n">
-        <v>190582.543372406</v>
+        <v>190582.554777606</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>4793</v>
       </c>
       <c r="I45" t="n">
-        <v>7518.9579546545</v>
+        <v>7518.95795794802</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>8970.22709592676</v>
+        <v>8970.22710204725</v>
       </c>
       <c r="C46" t="n">
-        <v>1329.6724682845</v>
+        <v>1329.67241141171</v>
       </c>
       <c r="D46" t="n">
-        <v>471.972930841849</v>
+        <v>471.972899249796</v>
       </c>
       <c r="E46" t="n">
-        <v>57045.3132872177</v>
+        <v>57045.3156540271</v>
       </c>
       <c r="F46" t="n">
-        <v>148481.991709888</v>
+        <v>148482.000930933</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>4517</v>
       </c>
       <c r="I46" t="n">
-        <v>4453.22709592676</v>
+        <v>4453.22710204725</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>5601.9506585536</v>
+        <v>5601.95065983867</v>
       </c>
       <c r="C47" t="n">
-        <v>787.892389565598</v>
+        <v>787.892354262075</v>
       </c>
       <c r="D47" t="n">
-        <v>271.609175464751</v>
+        <v>271.609156483081</v>
       </c>
       <c r="E47" t="n">
-        <v>37424.9898133488</v>
+        <v>37424.9914020904</v>
       </c>
       <c r="F47" t="n">
-        <v>99866.7698253713</v>
+        <v>99866.7761920196</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>4430</v>
       </c>
       <c r="I47" t="n">
-        <v>1171.9506585536</v>
+        <v>1171.95065983867</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>5040.13357377561</v>
+        <v>5040.13356827136</v>
       </c>
       <c r="C48" t="n">
-        <v>681.004908348363</v>
+        <v>681.004876071709</v>
       </c>
       <c r="D48" t="n">
-        <v>229.574078467662</v>
+        <v>229.574061661396</v>
       </c>
       <c r="E48" t="n">
-        <v>34961.0527829512</v>
+        <v>34961.0542604388</v>
       </c>
       <c r="F48" t="n">
-        <v>95076.466247716</v>
+        <v>95076.4723431584</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>6410</v>
       </c>
       <c r="I48" t="n">
-        <v>-1369.86642622439</v>
+        <v>-1369.86643172864</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>4850.24057770091</v>
+        <v>4850.24055488354</v>
       </c>
       <c r="C49" t="n">
-        <v>631.402114636875</v>
+        <v>631.402081604409</v>
       </c>
       <c r="D49" t="n">
-        <v>208.479463218517</v>
+        <v>208.47944677332</v>
       </c>
       <c r="E49" t="n">
-        <v>34836.2976252842</v>
+        <v>34836.2990124574</v>
       </c>
       <c r="F49" t="n">
-        <v>96414.1648606288</v>
+        <v>96414.1708614834</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>9126</v>
       </c>
       <c r="I49" t="n">
-        <v>-4275.75942229909</v>
+        <v>-4275.75944511646</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/Pertussis.xlsx
+++ b/outcome/appendix/forecast/Pertussis.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>1328.23535799475</v>
+        <v>1328.09920825875</v>
       </c>
       <c r="C2" t="n">
-        <v>1019.84213577614</v>
+        <v>1020.06395800965</v>
       </c>
       <c r="D2" t="n">
-        <v>886.31149668817</v>
+        <v>886.690682892314</v>
       </c>
       <c r="E2" t="n">
-        <v>1727.87590055886</v>
+        <v>1727.33979309978</v>
       </c>
       <c r="F2" t="n">
-        <v>1985.10503482226</v>
+        <v>1984.36793296296</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>1141</v>
       </c>
       <c r="I2" t="n">
-        <v>187.235357994748</v>
+        <v>187.099208258751</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>1578.92448786053</v>
+        <v>1578.751586624</v>
       </c>
       <c r="C3" t="n">
-        <v>1148.45502706311</v>
+        <v>1148.59388836309</v>
       </c>
       <c r="D3" t="n">
-        <v>969.686501851646</v>
+        <v>969.983430631117</v>
       </c>
       <c r="E3" t="n">
-        <v>2167.08980284359</v>
+        <v>2166.72762395827</v>
       </c>
       <c r="F3" t="n">
-        <v>2560.82344954697</v>
+        <v>2560.50882081831</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>738</v>
       </c>
       <c r="I3" t="n">
-        <v>840.924487860531</v>
+        <v>840.751586624002</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>2590.62604171338</v>
+        <v>2590.88756042074</v>
       </c>
       <c r="C4" t="n">
-        <v>1811.08134297745</v>
+        <v>1811.10841179555</v>
       </c>
       <c r="D4" t="n">
-        <v>1497.13389107876</v>
+        <v>1497.22941161567</v>
       </c>
       <c r="E4" t="n">
-        <v>3697.82735121314</v>
+        <v>3699.42723653145</v>
       </c>
       <c r="F4" t="n">
-        <v>4460.52038309219</v>
+        <v>4463.69211981236</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>874</v>
       </c>
       <c r="I4" t="n">
-        <v>1716.62604171338</v>
+        <v>1716.88756042074</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2618.31928197266</v>
+        <v>2618.01577971247</v>
       </c>
       <c r="C5" t="n">
-        <v>1724.72754714278</v>
+        <v>1724.43979190024</v>
       </c>
       <c r="D5" t="n">
-        <v>1381.11645096677</v>
+        <v>1381.02443065064</v>
       </c>
       <c r="E5" t="n">
-        <v>3963.40227725551</v>
+        <v>3964.47039474641</v>
       </c>
       <c r="F5" t="n">
-        <v>4930.32760642655</v>
+        <v>4933.35473890154</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>479</v>
       </c>
       <c r="I5" t="n">
-        <v>2139.31928197266</v>
+        <v>2139.01577971247</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>2898.31605043705</v>
+        <v>2898.68724667391</v>
       </c>
       <c r="C6" t="n">
-        <v>1852.88492151927</v>
+        <v>1852.79755349532</v>
       </c>
       <c r="D6" t="n">
-        <v>1460.16649747312</v>
+        <v>1460.17934992056</v>
       </c>
       <c r="E6" t="n">
-        <v>4518.56580349953</v>
+        <v>4521.69650536772</v>
       </c>
       <c r="F6" t="n">
-        <v>5708.41046880107</v>
+        <v>5715.00221991138</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>277</v>
       </c>
       <c r="I6" t="n">
-        <v>2621.31605043705</v>
+        <v>2621.68724667391</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>3273.94520812106</v>
+        <v>3275.32557494391</v>
       </c>
       <c r="C7" t="n">
-        <v>2002.55004760103</v>
+        <v>2002.85063265101</v>
       </c>
       <c r="D7" t="n">
-        <v>1541.18727429862</v>
+        <v>1541.47945943725</v>
       </c>
       <c r="E7" t="n">
-        <v>5331.13003493503</v>
+        <v>5337.37351783522</v>
       </c>
       <c r="F7" t="n">
-        <v>6889.96542633959</v>
+        <v>6902.13894316229</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>159</v>
       </c>
       <c r="I7" t="n">
-        <v>3114.94520812106</v>
+        <v>3116.32557494391</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>3999.9111553478</v>
+        <v>4002.39688956935</v>
       </c>
       <c r="C8" t="n">
-        <v>2377.57590397857</v>
+        <v>2377.87954077222</v>
       </c>
       <c r="D8" t="n">
-        <v>1801.94544802696</v>
+        <v>1802.08702223337</v>
       </c>
       <c r="E8" t="n">
-        <v>6699.13244055605</v>
+        <v>6710.26641821689</v>
       </c>
       <c r="F8" t="n">
-        <v>8786.24145335055</v>
+        <v>8807.66604343396</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>142</v>
       </c>
       <c r="I8" t="n">
-        <v>3857.9111553478</v>
+        <v>3860.39688956935</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5073.36604822442</v>
+        <v>5077.9633010353</v>
       </c>
       <c r="C9" t="n">
-        <v>2919.1419836168</v>
+        <v>2919.4904460364</v>
       </c>
       <c r="D9" t="n">
-        <v>2174.1105226362</v>
+        <v>2174.00210402836</v>
       </c>
       <c r="E9" t="n">
-        <v>8772.8247276738</v>
+        <v>8793.1961653907</v>
       </c>
       <c r="F9" t="n">
-        <v>11699.5749170456</v>
+        <v>11738.522419834</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>142</v>
       </c>
       <c r="I9" t="n">
-        <v>4931.36604822442</v>
+        <v>4935.9633010353</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>3674.34872951853</v>
+        <v>3675.71325563608</v>
       </c>
       <c r="C10" t="n">
-        <v>2046.06167184259</v>
+        <v>2045.93900168277</v>
       </c>
       <c r="D10" t="n">
-        <v>1497.29209919255</v>
+        <v>1497.25213723474</v>
       </c>
       <c r="E10" t="n">
-        <v>6561.11308816845</v>
+        <v>6570.87339910821</v>
       </c>
       <c r="F10" t="n">
-        <v>8897.93971557793</v>
+        <v>8918.9632833362</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>201</v>
       </c>
       <c r="I10" t="n">
-        <v>3473.34872951853</v>
+        <v>3474.71325563608</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2277.56222939692</v>
+        <v>2277.71253061885</v>
       </c>
       <c r="C11" t="n">
-        <v>1225.41772204318</v>
+        <v>1225.61644166724</v>
       </c>
       <c r="D11" t="n">
-        <v>880.335955390622</v>
+        <v>880.744443130831</v>
       </c>
       <c r="E11" t="n">
-        <v>4206.25505868933</v>
+        <v>4209.12069632854</v>
       </c>
       <c r="F11" t="n">
-        <v>5805.42900483304</v>
+        <v>5813.05653236519</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>267</v>
       </c>
       <c r="I11" t="n">
-        <v>2010.56222939692</v>
+        <v>2010.71253061885</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2047.84725325628</v>
+        <v>2047.9403542942</v>
       </c>
       <c r="C12" t="n">
-        <v>1069.93906405703</v>
+        <v>1070.24279139942</v>
       </c>
       <c r="D12" t="n">
-        <v>756.592235040812</v>
+        <v>757.097994299389</v>
       </c>
       <c r="E12" t="n">
-        <v>3892.32441079545</v>
+        <v>3894.53522341624</v>
       </c>
       <c r="F12" t="n">
-        <v>5453.2138465211</v>
+        <v>5459.63611243872</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>291</v>
       </c>
       <c r="I12" t="n">
-        <v>1756.84725325628</v>
+        <v>1756.9403542942</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>1967.54450816711</v>
+        <v>1968.02663032925</v>
       </c>
       <c r="C13" t="n">
-        <v>1000.35687033177</v>
+        <v>1000.89995745758</v>
       </c>
       <c r="D13" t="n">
-        <v>697.0877240078</v>
+        <v>697.764705467353</v>
       </c>
       <c r="E13" t="n">
-        <v>3840.68971679451</v>
+        <v>3843.62393470376</v>
       </c>
       <c r="F13" t="n">
-        <v>5456.04143333216</v>
+        <v>5463.67485611082</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>294</v>
       </c>
       <c r="I13" t="n">
-        <v>1673.54450816711</v>
+        <v>1674.02663032925</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>1810.12672444157</v>
+        <v>1810.23603796503</v>
       </c>
       <c r="C14" t="n">
-        <v>869.896312994111</v>
+        <v>870.409187316715</v>
       </c>
       <c r="D14" t="n">
-        <v>588.04300906322</v>
+        <v>588.725649934805</v>
       </c>
       <c r="E14" t="n">
-        <v>3733.35264579125</v>
+        <v>3735.09442982832</v>
       </c>
       <c r="F14" t="n">
-        <v>5457.572936821</v>
+        <v>5463.58580223063</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>205</v>
       </c>
       <c r="I14" t="n">
-        <v>1605.12672444157</v>
+        <v>1605.23603796503</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2100.49195873273</v>
+        <v>2100.85629369031</v>
       </c>
       <c r="C15" t="n">
-        <v>970.442080340157</v>
+        <v>971.011511661198</v>
       </c>
       <c r="D15" t="n">
-        <v>642.210260272753</v>
+        <v>642.951835453871</v>
       </c>
       <c r="E15" t="n">
-        <v>4501.9272643371</v>
+        <v>4505.70352681333</v>
       </c>
       <c r="F15" t="n">
-        <v>6713.77950235071</v>
+        <v>6724.96727179831</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>115</v>
       </c>
       <c r="I15" t="n">
-        <v>1985.49195873273</v>
+        <v>1985.85629369031</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3566.722479584</v>
+        <v>3569.02688609333</v>
       </c>
       <c r="C16" t="n">
-        <v>1596.93067118469</v>
+        <v>1597.49902141308</v>
       </c>
       <c r="D16" t="n">
-        <v>1039.03470607697</v>
+        <v>1039.73095662062</v>
       </c>
       <c r="E16" t="n">
-        <v>7881.819499373</v>
+        <v>7899.2794843914</v>
       </c>
       <c r="F16" t="n">
-        <v>11942.2737375169</v>
+        <v>11985.0349916841</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>220</v>
       </c>
       <c r="I16" t="n">
-        <v>3346.722479584</v>
+        <v>3349.02688609333</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>3482.21196558208</v>
+        <v>3483.70804982683</v>
       </c>
       <c r="C17" t="n">
-        <v>1495.95105452432</v>
+        <v>1496.29217864397</v>
       </c>
       <c r="D17" t="n">
-        <v>951.817376594536</v>
+        <v>952.416401524759</v>
       </c>
       <c r="E17" t="n">
-        <v>8010.91560833424</v>
+        <v>8027.2523883794</v>
       </c>
       <c r="F17" t="n">
-        <v>12393.7022434286</v>
+        <v>12436.8552953145</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>308</v>
       </c>
       <c r="I17" t="n">
-        <v>3174.21196558208</v>
+        <v>3175.70804982683</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>3955.05780982721</v>
+        <v>3958.06421290261</v>
       </c>
       <c r="C18" t="n">
-        <v>1644.9825823101</v>
+        <v>1645.58885365124</v>
       </c>
       <c r="D18" t="n">
-        <v>1028.47019978339</v>
+        <v>1029.21593053803</v>
       </c>
       <c r="E18" t="n">
-        <v>9389.39140199265</v>
+        <v>9414.65581793313</v>
       </c>
       <c r="F18" t="n">
-        <v>14764.9376859898</v>
+        <v>14829.203134369</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>427</v>
       </c>
       <c r="I18" t="n">
-        <v>3528.05780982721</v>
+        <v>3531.06421290261</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>4389.32573060874</v>
+        <v>4394.04983870828</v>
       </c>
       <c r="C19" t="n">
-        <v>1762.33240070093</v>
+        <v>1763.28612644935</v>
       </c>
       <c r="D19" t="n">
-        <v>1080.98755995305</v>
+        <v>1081.93884559543</v>
       </c>
       <c r="E19" t="n">
-        <v>10783.3223946433</v>
+        <v>10818.8306546275</v>
       </c>
       <c r="F19" t="n">
-        <v>17260.1179499378</v>
+        <v>17349.1966543019</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>519</v>
       </c>
       <c r="I19" t="n">
-        <v>3870.32573060874</v>
+        <v>3875.04983870828</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>5408.62171161371</v>
+        <v>5416.52858887402</v>
       </c>
       <c r="C20" t="n">
-        <v>2108.70660068041</v>
+        <v>2109.87496342348</v>
       </c>
       <c r="D20" t="n">
-        <v>1273.00852379239</v>
+        <v>1273.98042126604</v>
       </c>
       <c r="E20" t="n">
-        <v>13671.4709400159</v>
+        <v>13728.7636581897</v>
       </c>
       <c r="F20" t="n">
-        <v>22207.8332936472</v>
+        <v>22349.4964779393</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>820</v>
       </c>
       <c r="I20" t="n">
-        <v>4588.62171161371</v>
+        <v>4596.52858887402</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>6822.53690322939</v>
+        <v>6835.01003713387</v>
       </c>
       <c r="C21" t="n">
-        <v>2583.16781000164</v>
+        <v>2584.37935614756</v>
       </c>
       <c r="D21" t="n">
-        <v>1534.84754721323</v>
+        <v>1535.62901780817</v>
       </c>
       <c r="E21" t="n">
-        <v>17741.8938471723</v>
+        <v>17833.2552723353</v>
       </c>
       <c r="F21" t="n">
-        <v>29245.6355139551</v>
+        <v>29470.8551020244</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>1227</v>
       </c>
       <c r="I21" t="n">
-        <v>5595.53690322939</v>
+        <v>5608.01003713387</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>4955.00337944013</v>
+        <v>4960.71126827154</v>
       </c>
       <c r="C22" t="n">
-        <v>1808.75586627539</v>
+        <v>1809.55968576749</v>
       </c>
       <c r="D22" t="n">
-        <v>1053.59790003971</v>
+        <v>1054.47800496209</v>
       </c>
       <c r="E22" t="n">
-        <v>13349.2364414308</v>
+        <v>13401.6436065131</v>
       </c>
       <c r="F22" t="n">
-        <v>22410.3558173389</v>
+        <v>22550.2499123381</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>1094</v>
       </c>
       <c r="I22" t="n">
-        <v>3861.00337944013</v>
+        <v>3866.71126827154</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>3079.92754078169</v>
+        <v>3081.51898958677</v>
       </c>
       <c r="C23" t="n">
-        <v>1081.24541727481</v>
+        <v>1082.07005096072</v>
       </c>
       <c r="D23" t="n">
-        <v>616.602561409046</v>
+        <v>617.579430767959</v>
       </c>
       <c r="E23" t="n">
-        <v>8616.63225802415</v>
+        <v>8637.14070657623</v>
       </c>
       <c r="F23" t="n">
-        <v>14749.7015540035</v>
+        <v>14812.6286661413</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>825</v>
       </c>
       <c r="I23" t="n">
-        <v>2254.92754078169</v>
+        <v>2256.51898958677</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>2768.06834571668</v>
+        <v>2769.36066911716</v>
       </c>
       <c r="C24" t="n">
-        <v>941.19397973834</v>
+        <v>942.097535621619</v>
       </c>
       <c r="D24" t="n">
-        <v>527.482918438802</v>
+        <v>528.486061693698</v>
       </c>
       <c r="E24" t="n">
-        <v>7986.83781910288</v>
+        <v>8004.18216973755</v>
       </c>
       <c r="F24" t="n">
-        <v>13890.841305703</v>
+        <v>13946.7451965811</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>1148</v>
       </c>
       <c r="I24" t="n">
-        <v>1620.06834571668</v>
+        <v>1621.36066911716</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2662.76309115756</v>
+        <v>2664.42267913474</v>
       </c>
       <c r="C25" t="n">
-        <v>878.693501125437</v>
+        <v>879.780861356414</v>
       </c>
       <c r="D25" t="n">
-        <v>484.495952628389</v>
+        <v>485.58649719755</v>
       </c>
       <c r="E25" t="n">
-        <v>7907.9775466263</v>
+        <v>7926.25402471197</v>
       </c>
       <c r="F25" t="n">
-        <v>13959.6890850039</v>
+        <v>14018.4113753222</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>2254</v>
       </c>
       <c r="I25" t="n">
-        <v>408.763091157562</v>
+        <v>410.422679134736</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2448.75420987494</v>
+        <v>2449.74016358313</v>
       </c>
       <c r="C26" t="n">
-        <v>766.095172765219</v>
+        <v>767.101873715708</v>
       </c>
       <c r="D26" t="n">
-        <v>410.306425147819</v>
+        <v>411.322797824013</v>
       </c>
       <c r="E26" t="n">
-        <v>7655.79620338393</v>
+        <v>7670.89024625696</v>
       </c>
       <c r="F26" t="n">
-        <v>13876.5642029067</v>
+        <v>13930.6511944809</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>2354</v>
       </c>
       <c r="I26" t="n">
-        <v>94.7542098749382</v>
+        <v>95.7401635831325</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2841.01218944469</v>
+        <v>2842.70529165722</v>
       </c>
       <c r="C27" t="n">
-        <v>855.115270024412</v>
+        <v>856.233726356161</v>
       </c>
       <c r="D27" t="n">
-        <v>448.425544850797</v>
+        <v>449.53792499054</v>
       </c>
       <c r="E27" t="n">
-        <v>9218.50079458949</v>
+        <v>9242.51035651498</v>
       </c>
       <c r="F27" t="n">
-        <v>17031.3398294679</v>
+        <v>17113.8737006603</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>2576</v>
       </c>
       <c r="I27" t="n">
-        <v>265.012189444693</v>
+        <v>266.705291657223</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>4809.81080509731</v>
+        <v>4816.45209761314</v>
       </c>
       <c r="C28" t="n">
-        <v>1406.91336509652</v>
+        <v>1408.31189354041</v>
       </c>
       <c r="D28" t="n">
-        <v>726.363401833129</v>
+        <v>727.713226797361</v>
       </c>
       <c r="E28" t="n">
-        <v>16041.2460142805</v>
+        <v>16118.489019234</v>
       </c>
       <c r="F28" t="n">
-        <v>30057.2973002288</v>
+        <v>30294.3832398745</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>3747</v>
       </c>
       <c r="I28" t="n">
-        <v>1062.81080509731</v>
+        <v>1069.45209761314</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>4697.15214555481</v>
+        <v>4702.56907072227</v>
       </c>
       <c r="C29" t="n">
-        <v>1316.98527578658</v>
+        <v>1318.16406794878</v>
       </c>
       <c r="D29" t="n">
-        <v>664.374097236998</v>
+        <v>665.621568703335</v>
       </c>
       <c r="E29" t="n">
-        <v>16315.1930230652</v>
+        <v>16391.2331970634</v>
       </c>
       <c r="F29" t="n">
-        <v>31214.7279113513</v>
+        <v>31459.9944889116</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>3415</v>
       </c>
       <c r="I29" t="n">
-        <v>1282.15214555481</v>
+        <v>1287.56907072227</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>5331.29689508211</v>
+        <v>5339.60170735348</v>
       </c>
       <c r="C30" t="n">
-        <v>1445.43033743453</v>
+        <v>1446.91906221647</v>
       </c>
       <c r="D30" t="n">
-        <v>715.895542854616</v>
+        <v>717.304993310085</v>
       </c>
       <c r="E30" t="n">
-        <v>19123.3497568392</v>
+        <v>19229.3495845117</v>
       </c>
       <c r="F30" t="n">
-        <v>37195.8920851522</v>
+        <v>37533.113668944</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>3991</v>
       </c>
       <c r="I30" t="n">
-        <v>1340.29689508211</v>
+        <v>1348.60170735348</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>5913.60565452946</v>
+        <v>5925.07815572866</v>
       </c>
       <c r="C31" t="n">
-        <v>1546.01692245476</v>
+        <v>1547.87690293218</v>
       </c>
       <c r="D31" t="n">
-        <v>750.605622778615</v>
+        <v>752.203001110381</v>
       </c>
       <c r="E31" t="n">
-        <v>21963.883776664</v>
+        <v>22103.4668506441</v>
       </c>
       <c r="F31" t="n">
-        <v>43489.8516432732</v>
+        <v>43932.8573617925</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>4213</v>
       </c>
       <c r="I31" t="n">
-        <v>1700.60565452946</v>
+        <v>1712.07815572866</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>7279.50012068828</v>
+        <v>7297.35811777437</v>
       </c>
       <c r="C32" t="n">
-        <v>1846.0193466602</v>
+        <v>1848.20783141724</v>
       </c>
       <c r="D32" t="n">
-        <v>881.420336701734</v>
+        <v>883.143153332383</v>
       </c>
       <c r="E32" t="n">
-        <v>27835.8981445076</v>
+        <v>28047.8436350819</v>
       </c>
       <c r="F32" t="n">
-        <v>55944.4332567798</v>
+        <v>56610.7491607512</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>4234</v>
       </c>
       <c r="I32" t="n">
-        <v>3045.50012068828</v>
+        <v>3063.35811777437</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>9171.69860649944</v>
+        <v>9198.90560302081</v>
       </c>
       <c r="C33" t="n">
-        <v>2256.69090700843</v>
+        <v>2259.08717204484</v>
       </c>
       <c r="D33" t="n">
-        <v>1059.80370730698</v>
+        <v>1061.51984748457</v>
       </c>
       <c r="E33" t="n">
-        <v>36097.5866720403</v>
+        <v>36421.640664319</v>
       </c>
       <c r="F33" t="n">
-        <v>73626.7152919282</v>
+        <v>74642.2457648089</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>5355</v>
       </c>
       <c r="I33" t="n">
-        <v>3816.69860649944</v>
+        <v>3843.90560302081</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>6671.84097364852</v>
+        <v>6685.78382790766</v>
       </c>
       <c r="C34" t="n">
-        <v>1574.45770299965</v>
+        <v>1576.25820803455</v>
       </c>
       <c r="D34" t="n">
-        <v>722.645187786152</v>
+        <v>724.218342579222</v>
       </c>
       <c r="E34" t="n">
-        <v>27326.1123088982</v>
+        <v>27526.0516380239</v>
       </c>
       <c r="F34" t="n">
-        <v>56882.3124718689</v>
+        <v>57554.1073325101</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>3849</v>
       </c>
       <c r="I34" t="n">
-        <v>2822.84097364852</v>
+        <v>2836.78382790766</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>4156.83851397766</v>
+        <v>4161.67639561887</v>
       </c>
       <c r="C35" t="n">
-        <v>937.254600170932</v>
+        <v>938.753217553777</v>
       </c>
       <c r="D35" t="n">
-        <v>419.538661514976</v>
+        <v>420.857562439843</v>
       </c>
       <c r="E35" t="n">
-        <v>17780.7506781256</v>
+        <v>17871.3022168791</v>
       </c>
       <c r="F35" t="n">
-        <v>37841.9977879482</v>
+        <v>38182.4039674898</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>2594</v>
       </c>
       <c r="I35" t="n">
-        <v>1562.83851397766</v>
+        <v>1567.67639561887</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3737.97341235729</v>
+        <v>3741.89836622829</v>
       </c>
       <c r="C36" t="n">
-        <v>813.053547198525</v>
+        <v>814.550648871087</v>
       </c>
       <c r="D36" t="n">
-        <v>356.81436710931</v>
+        <v>358.066862203604</v>
       </c>
       <c r="E36" t="n">
-        <v>16545.368346294</v>
+        <v>16624.2381288508</v>
       </c>
       <c r="F36" t="n">
-        <v>35832.3225556068</v>
+        <v>36141.931202972</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>2160</v>
       </c>
       <c r="I36" t="n">
-        <v>1577.97341235729</v>
+        <v>1581.89836622829</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3596.44874179971</v>
+        <v>3600.70201347954</v>
       </c>
       <c r="C37" t="n">
-        <v>756.477295478421</v>
+        <v>758.103846539973</v>
       </c>
       <c r="D37" t="n">
-        <v>325.910822609035</v>
+        <v>327.179293196628</v>
       </c>
       <c r="E37" t="n">
-        <v>16434.3362057471</v>
+        <v>16514.7104557533</v>
       </c>
       <c r="F37" t="n">
-        <v>36174.4247682049</v>
+        <v>36494.2441479281</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>1293</v>
       </c>
       <c r="I37" t="n">
-        <v>2303.44874179971</v>
+        <v>2307.70201347954</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>3308.79636504701</v>
+        <v>3311.81896591776</v>
       </c>
       <c r="C38" t="n">
-        <v>659.110162755329</v>
+        <v>660.596685053089</v>
       </c>
       <c r="D38" t="n">
-        <v>275.567607049416</v>
+        <v>276.699569219498</v>
       </c>
       <c r="E38" t="n">
-        <v>15921.2418112389</v>
+        <v>15992.8796850731</v>
       </c>
       <c r="F38" t="n">
-        <v>35978.4530842011</v>
+        <v>36284.9591774454</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>883</v>
       </c>
       <c r="I38" t="n">
-        <v>2425.79636504701</v>
+        <v>2428.81896591776</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>3835.96203106854</v>
+        <v>3840.54249100355</v>
       </c>
       <c r="C39" t="n">
-        <v>734.475414093705</v>
+        <v>736.12383048974</v>
       </c>
       <c r="D39" t="n">
-        <v>300.441129867081</v>
+        <v>301.687251250073</v>
       </c>
       <c r="E39" t="n">
-        <v>19163.0548073333</v>
+        <v>19266.9526428931</v>
       </c>
       <c r="F39" t="n">
-        <v>44137.6538144145</v>
+        <v>44574.2173433255</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>538</v>
       </c>
       <c r="I39" t="n">
-        <v>3297.96203106854</v>
+        <v>3302.54249100355</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>6477.22615563541</v>
+        <v>6492.12035435438</v>
       </c>
       <c r="C40" t="n">
-        <v>1207.20205486867</v>
+        <v>1209.41505020409</v>
       </c>
       <c r="D40" t="n">
-        <v>486.508180017006</v>
+        <v>488.207000764932</v>
       </c>
       <c r="E40" t="n">
-        <v>33194.4271066085</v>
+        <v>33476.7788132956</v>
       </c>
       <c r="F40" t="n">
-        <v>77453.5688256829</v>
+        <v>78546.3093672897</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>821</v>
       </c>
       <c r="I40" t="n">
-        <v>5656.22615563541</v>
+        <v>5671.12035435438</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>6326.26153422377</v>
+        <v>6339.27986271981</v>
       </c>
       <c r="C41" t="n">
-        <v>1127.54060153077</v>
+        <v>1129.5260734434</v>
       </c>
       <c r="D41" t="n">
-        <v>443.311448171662</v>
+        <v>444.887024127531</v>
       </c>
       <c r="E41" t="n">
-        <v>33819.7085796159</v>
+        <v>34103.2263707278</v>
       </c>
       <c r="F41" t="n">
-        <v>80622.937059691</v>
+        <v>81765.2366817904</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>1074</v>
       </c>
       <c r="I41" t="n">
-        <v>5252.26153422377</v>
+        <v>5265.27986271981</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>7175.83203108603</v>
+        <v>7194.06170122823</v>
       </c>
       <c r="C42" t="n">
-        <v>1234.41174970666</v>
+        <v>1236.74008888387</v>
       </c>
       <c r="D42" t="n">
-        <v>475.895586289567</v>
+        <v>477.633571200265</v>
       </c>
       <c r="E42" t="n">
-        <v>39667.3187876381</v>
+        <v>40044.9809623334</v>
       </c>
       <c r="F42" t="n">
-        <v>96181.9982147947</v>
+        <v>97697.1117150012</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>1334</v>
       </c>
       <c r="I42" t="n">
-        <v>5841.83203108603</v>
+        <v>5860.06170122823</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>7955.52999036676</v>
+        <v>7979.29159553457</v>
       </c>
       <c r="C43" t="n">
-        <v>1317.2210385849</v>
+        <v>1319.92527502079</v>
       </c>
       <c r="D43" t="n">
-        <v>497.177433625563</v>
+        <v>499.076561977818</v>
       </c>
       <c r="E43" t="n">
-        <v>45591.3822895835</v>
+        <v>46072.7390171078</v>
       </c>
       <c r="F43" t="n">
-        <v>112583.430082819</v>
+        <v>114521.184293728</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>1512</v>
       </c>
       <c r="I43" t="n">
-        <v>6443.52999036676</v>
+        <v>6467.29159553457</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>9783.01058092558</v>
+        <v>9818.52478842826</v>
       </c>
       <c r="C44" t="n">
-        <v>1568.99700127451</v>
+        <v>1572.12970741761</v>
       </c>
       <c r="D44" t="n">
-        <v>581.832078049472</v>
+        <v>583.931897008226</v>
       </c>
       <c r="E44" t="n">
-        <v>57772.7660026585</v>
+        <v>58477.6989462491</v>
       </c>
       <c r="F44" t="n">
-        <v>144848.732226621</v>
+        <v>147670.034323654</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>2767</v>
       </c>
       <c r="I44" t="n">
-        <v>7016.01058092558</v>
+        <v>7051.52478842826</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>12311.957957948</v>
+        <v>12364.7676049652</v>
       </c>
       <c r="C45" t="n">
-        <v>1913.58156587184</v>
+        <v>1917.06710861503</v>
       </c>
       <c r="D45" t="n">
-        <v>697.357885203557</v>
+        <v>699.593974989324</v>
       </c>
       <c r="E45" t="n">
-        <v>74886.5054293436</v>
+        <v>75934.0648753807</v>
       </c>
       <c r="F45" t="n">
-        <v>190582.554777606</v>
+        <v>194766.362844082</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>4793</v>
       </c>
       <c r="I45" t="n">
-        <v>7518.95795794802</v>
+        <v>7571.76760496516</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>8970.22710204725</v>
+        <v>8999.04433744142</v>
       </c>
       <c r="C46" t="n">
-        <v>1329.67241141171</v>
+        <v>1332.36537556798</v>
       </c>
       <c r="D46" t="n">
-        <v>471.972899249796</v>
+        <v>473.839038236826</v>
       </c>
       <c r="E46" t="n">
-        <v>57045.3156540271</v>
+        <v>57724.0282664313</v>
       </c>
       <c r="F46" t="n">
-        <v>148482.000930933</v>
+        <v>151372.026378495</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>4517</v>
       </c>
       <c r="I46" t="n">
-        <v>4453.22710204725</v>
+        <v>4482.04433744142</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>5601.95065983867</v>
+        <v>5613.11146348293</v>
       </c>
       <c r="C47" t="n">
-        <v>787.892354262075</v>
+        <v>789.966065216334</v>
       </c>
       <c r="D47" t="n">
-        <v>271.609156483081</v>
+        <v>272.964210448508</v>
       </c>
       <c r="E47" t="n">
-        <v>37424.9914020904</v>
+        <v>37761.5971375076</v>
       </c>
       <c r="F47" t="n">
-        <v>99866.7761920196</v>
+        <v>101446.87382606</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>4430</v>
       </c>
       <c r="I47" t="n">
-        <v>1171.95065983867</v>
+        <v>1183.11146348293</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>5040.13356827136</v>
+        <v>5049.27262093144</v>
       </c>
       <c r="C48" t="n">
-        <v>681.004876071709</v>
+        <v>682.993373439119</v>
       </c>
       <c r="D48" t="n">
-        <v>229.574061661396</v>
+        <v>230.79684632565</v>
       </c>
       <c r="E48" t="n">
-        <v>34961.0542604388</v>
+        <v>35260.3674271472</v>
       </c>
       <c r="F48" t="n">
-        <v>95076.4723431584</v>
+        <v>96538.4184155841</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>6410</v>
       </c>
       <c r="I48" t="n">
-        <v>-1369.86643172864</v>
+        <v>-1360.72737906856</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>4850.24055488354</v>
+        <v>4859.56109827302</v>
       </c>
       <c r="C49" t="n">
-        <v>631.402081604409</v>
+        <v>633.459938165493</v>
       </c>
       <c r="D49" t="n">
-        <v>208.47944677332</v>
+        <v>209.66465486161</v>
       </c>
       <c r="E49" t="n">
-        <v>34836.2990124574</v>
+        <v>35138.7605763302</v>
       </c>
       <c r="F49" t="n">
-        <v>96414.1708614834</v>
+        <v>97920.2375111228</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>9126</v>
       </c>
       <c r="I49" t="n">
-        <v>-4275.75944511646</v>
+        <v>-4266.43890172698</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/Pertussis.xlsx
+++ b/outcome/appendix/forecast/Pertussis.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>1328.09920825875</v>
+        <v>1328.2213063059</v>
       </c>
       <c r="C2" t="n">
-        <v>1020.06395800965</v>
+        <v>1019.86433390333</v>
       </c>
       <c r="D2" t="n">
-        <v>886.690682892314</v>
+        <v>886.349605635695</v>
       </c>
       <c r="E2" t="n">
-        <v>1727.33979309978</v>
+        <v>1727.82120452963</v>
       </c>
       <c r="F2" t="n">
-        <v>1984.36793296296</v>
+        <v>1985.029798576</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>1141</v>
       </c>
       <c r="I2" t="n">
-        <v>187.099208258751</v>
+        <v>187.221306305898</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>1578.751586624</v>
+        <v>1578.90709887317</v>
       </c>
       <c r="C3" t="n">
-        <v>1148.59388836309</v>
+        <v>1148.46912906335</v>
       </c>
       <c r="D3" t="n">
-        <v>969.983430631117</v>
+        <v>969.71652881167</v>
       </c>
       <c r="E3" t="n">
-        <v>2166.72762395827</v>
+        <v>2167.05302501389</v>
       </c>
       <c r="F3" t="n">
-        <v>2560.50882081831</v>
+        <v>2560.79110236887</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>738</v>
       </c>
       <c r="I3" t="n">
-        <v>840.751586624002</v>
+        <v>840.907098873171</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>2590.88756042074</v>
+        <v>2590.65143207739</v>
       </c>
       <c r="C4" t="n">
-        <v>1811.10841179555</v>
+        <v>1811.08384043525</v>
       </c>
       <c r="D4" t="n">
-        <v>1497.22941161567</v>
+        <v>1497.14344073131</v>
       </c>
       <c r="E4" t="n">
-        <v>3699.42723653145</v>
+        <v>3697.98564237294</v>
       </c>
       <c r="F4" t="n">
-        <v>4463.69211981236</v>
+        <v>4460.83505499038</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>874</v>
       </c>
       <c r="I4" t="n">
-        <v>1716.88756042074</v>
+        <v>1716.65143207739</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2618.01577971247</v>
+        <v>2618.28836638192</v>
       </c>
       <c r="C5" t="n">
-        <v>1724.43979190024</v>
+        <v>1724.69875552943</v>
       </c>
       <c r="D5" t="n">
-        <v>1381.02443065064</v>
+        <v>1381.10743265887</v>
       </c>
       <c r="E5" t="n">
-        <v>3964.47039474641</v>
+        <v>3963.50753139519</v>
       </c>
       <c r="F5" t="n">
-        <v>4933.35473890154</v>
+        <v>4930.62782445306</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>479</v>
       </c>
       <c r="I5" t="n">
-        <v>2139.01577971247</v>
+        <v>2139.28836638192</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>2898.68724667391</v>
+        <v>2898.35226056943</v>
       </c>
       <c r="C6" t="n">
-        <v>1852.79755349532</v>
+        <v>1852.87594745257</v>
       </c>
       <c r="D6" t="n">
-        <v>1460.17934992056</v>
+        <v>1460.16778074451</v>
       </c>
       <c r="E6" t="n">
-        <v>4521.69650536772</v>
+        <v>4518.87658138322</v>
       </c>
       <c r="F6" t="n">
-        <v>5715.00221991138</v>
+        <v>5709.06588973127</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>277</v>
       </c>
       <c r="I6" t="n">
-        <v>2621.68724667391</v>
+        <v>2621.35226056943</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>3275.32557494391</v>
+        <v>3274.08292879401</v>
       </c>
       <c r="C7" t="n">
-        <v>2002.85063265101</v>
+        <v>2002.58033738506</v>
       </c>
       <c r="D7" t="n">
-        <v>1541.47945943725</v>
+        <v>1541.21688176426</v>
       </c>
       <c r="E7" t="n">
-        <v>5337.37351783522</v>
+        <v>5331.75244773198</v>
       </c>
       <c r="F7" t="n">
-        <v>6902.13894316229</v>
+        <v>6891.1786995932</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>159</v>
       </c>
       <c r="I7" t="n">
-        <v>3116.32557494391</v>
+        <v>3115.08292879401</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>4002.39688956935</v>
+        <v>4000.1586529443</v>
       </c>
       <c r="C8" t="n">
-        <v>2377.87954077222</v>
+        <v>2377.60615006418</v>
       </c>
       <c r="D8" t="n">
-        <v>1802.08702223337</v>
+        <v>1801.95974107616</v>
       </c>
       <c r="E8" t="n">
-        <v>6710.26641821689</v>
+        <v>6700.24157472552</v>
       </c>
       <c r="F8" t="n">
-        <v>8807.66604343396</v>
+        <v>8788.37528095687</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>142</v>
       </c>
       <c r="I8" t="n">
-        <v>3860.39688956935</v>
+        <v>3858.1586529443</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5077.9633010353</v>
+        <v>5073.8247285776</v>
       </c>
       <c r="C9" t="n">
-        <v>2919.4904460364</v>
+        <v>2919.17687705057</v>
       </c>
       <c r="D9" t="n">
-        <v>2174.00210402836</v>
+        <v>2174.09992389729</v>
       </c>
       <c r="E9" t="n">
-        <v>8793.1961653907</v>
+        <v>8774.85547243095</v>
       </c>
       <c r="F9" t="n">
-        <v>11738.522419834</v>
+        <v>11703.4549626426</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>142</v>
       </c>
       <c r="I9" t="n">
-        <v>4935.9633010353</v>
+        <v>4931.8247285776</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>3675.71325563608</v>
+        <v>3674.4842193109</v>
       </c>
       <c r="C10" t="n">
-        <v>2045.93900168277</v>
+        <v>2046.04929284241</v>
       </c>
       <c r="D10" t="n">
-        <v>1497.25213723474</v>
+        <v>1497.28823421317</v>
       </c>
       <c r="E10" t="n">
-        <v>6570.87339910821</v>
+        <v>6562.08513905106</v>
       </c>
       <c r="F10" t="n">
-        <v>8918.9632833362</v>
+        <v>8900.0334395571</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>201</v>
       </c>
       <c r="I10" t="n">
-        <v>3474.71325563608</v>
+        <v>3473.4842193109</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2277.71253061885</v>
+        <v>2277.57694862214</v>
       </c>
       <c r="C11" t="n">
-        <v>1225.61644166724</v>
+        <v>1225.43776748603</v>
       </c>
       <c r="D11" t="n">
-        <v>880.744443130831</v>
+        <v>880.377126002428</v>
       </c>
       <c r="E11" t="n">
-        <v>4209.12069632854</v>
+        <v>4206.540148349</v>
       </c>
       <c r="F11" t="n">
-        <v>5813.05653236519</v>
+        <v>5806.18862925575</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>267</v>
       </c>
       <c r="I11" t="n">
-        <v>2010.71253061885</v>
+        <v>2010.57694862214</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2047.9403542942</v>
+        <v>2047.8562706716</v>
       </c>
       <c r="C12" t="n">
-        <v>1070.24279139942</v>
+        <v>1069.9696435732</v>
       </c>
       <c r="D12" t="n">
-        <v>757.097994299389</v>
+        <v>756.643156971076</v>
       </c>
       <c r="E12" t="n">
-        <v>3894.53522341624</v>
+        <v>3892.54404734007</v>
       </c>
       <c r="F12" t="n">
-        <v>5459.63611243872</v>
+        <v>5453.85306240801</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>291</v>
       </c>
       <c r="I12" t="n">
-        <v>1756.9403542942</v>
+        <v>1756.8562706716</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>1968.02663032925</v>
+        <v>1967.59267141822</v>
       </c>
       <c r="C13" t="n">
-        <v>1000.89995745758</v>
+        <v>1000.41152240677</v>
       </c>
       <c r="D13" t="n">
-        <v>697.764705467353</v>
+        <v>697.155856175721</v>
       </c>
       <c r="E13" t="n">
-        <v>3843.62393470376</v>
+        <v>3840.98204309928</v>
       </c>
       <c r="F13" t="n">
-        <v>5463.67485611082</v>
+        <v>5456.80208568247</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>294</v>
       </c>
       <c r="I13" t="n">
-        <v>1674.02663032925</v>
+        <v>1673.59267141822</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>1810.23603796503</v>
+        <v>1810.13732198522</v>
       </c>
       <c r="C14" t="n">
-        <v>870.409187316715</v>
+        <v>869.947870292289</v>
       </c>
       <c r="D14" t="n">
-        <v>588.725649934805</v>
+        <v>588.11166841165</v>
       </c>
       <c r="E14" t="n">
-        <v>3735.09442982832</v>
+        <v>3733.52500044084</v>
       </c>
       <c r="F14" t="n">
-        <v>5463.58580223063</v>
+        <v>5458.1704183772</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>205</v>
       </c>
       <c r="I14" t="n">
-        <v>1605.23603796503</v>
+        <v>1605.13732198522</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2100.85629369031</v>
+        <v>2100.52818827153</v>
       </c>
       <c r="C15" t="n">
-        <v>971.011511661198</v>
+        <v>970.499394545841</v>
       </c>
       <c r="D15" t="n">
-        <v>642.951835453871</v>
+        <v>642.284897780412</v>
       </c>
       <c r="E15" t="n">
-        <v>4505.70352681333</v>
+        <v>4502.30292292241</v>
       </c>
       <c r="F15" t="n">
-        <v>6724.96727179831</v>
+        <v>6714.89332271724</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>115</v>
       </c>
       <c r="I15" t="n">
-        <v>1985.85629369031</v>
+        <v>1985.52818827153</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3569.02688609333</v>
+        <v>3566.95223372068</v>
       </c>
       <c r="C16" t="n">
-        <v>1597.49902141308</v>
+        <v>1596.9878243119</v>
       </c>
       <c r="D16" t="n">
-        <v>1039.73095662062</v>
+        <v>1039.10484463302</v>
       </c>
       <c r="E16" t="n">
-        <v>7899.2794843914</v>
+        <v>7883.55895744516</v>
       </c>
       <c r="F16" t="n">
-        <v>11985.0349916841</v>
+        <v>11946.5309076856</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>220</v>
       </c>
       <c r="I16" t="n">
-        <v>3349.02688609333</v>
+        <v>3346.95223372068</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>3483.70804982683</v>
+        <v>3482.36080907336</v>
       </c>
       <c r="C17" t="n">
-        <v>1496.29217864397</v>
+        <v>1495.98545521142</v>
       </c>
       <c r="D17" t="n">
-        <v>952.416401524759</v>
+        <v>951.877781746259</v>
       </c>
       <c r="E17" t="n">
-        <v>8027.2523883794</v>
+        <v>8012.542549576</v>
       </c>
       <c r="F17" t="n">
-        <v>12436.8552953145</v>
+        <v>12397.9974711175</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>308</v>
       </c>
       <c r="I17" t="n">
-        <v>3175.70804982683</v>
+        <v>3174.36080907336</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>3958.06421290261</v>
+        <v>3955.35753443664</v>
       </c>
       <c r="C18" t="n">
-        <v>1645.58885365124</v>
+        <v>1645.04355771564</v>
       </c>
       <c r="D18" t="n">
-        <v>1029.21593053803</v>
+        <v>1028.54533245213</v>
       </c>
       <c r="E18" t="n">
-        <v>9414.65581793313</v>
+        <v>9391.90773695597</v>
       </c>
       <c r="F18" t="n">
-        <v>14829.203134369</v>
+        <v>14771.3327302163</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>427</v>
       </c>
       <c r="I18" t="n">
-        <v>3531.06421290261</v>
+        <v>3528.35753443664</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>4394.04983870828</v>
+        <v>4389.79739403225</v>
       </c>
       <c r="C19" t="n">
-        <v>1763.28612644935</v>
+        <v>1762.42837585206</v>
       </c>
       <c r="D19" t="n">
-        <v>1081.93884559543</v>
+        <v>1081.08343621346</v>
       </c>
       <c r="E19" t="n">
-        <v>10818.8306546275</v>
+        <v>10786.8594470074</v>
       </c>
       <c r="F19" t="n">
-        <v>17349.1966543019</v>
+        <v>17268.9802642782</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>519</v>
       </c>
       <c r="I19" t="n">
-        <v>3875.04983870828</v>
+        <v>3870.79739403225</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>5416.52858887402</v>
+        <v>5409.41081692646</v>
       </c>
       <c r="C20" t="n">
-        <v>2109.87496342348</v>
+        <v>2108.82402921357</v>
       </c>
       <c r="D20" t="n">
-        <v>1273.98042126604</v>
+        <v>1273.10649378163</v>
       </c>
       <c r="E20" t="n">
-        <v>13728.7636581897</v>
+        <v>13677.1749990824</v>
       </c>
       <c r="F20" t="n">
-        <v>22349.4964779393</v>
+        <v>22221.9169188608</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>820</v>
       </c>
       <c r="I20" t="n">
-        <v>4596.52858887402</v>
+        <v>4589.41081692646</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>6835.01003713387</v>
+        <v>6823.78153170145</v>
       </c>
       <c r="C21" t="n">
-        <v>2584.37935614756</v>
+        <v>2583.28962666994</v>
       </c>
       <c r="D21" t="n">
-        <v>1535.62901780817</v>
+        <v>1534.92654802994</v>
       </c>
       <c r="E21" t="n">
-        <v>17833.2552723353</v>
+        <v>17750.9852603199</v>
       </c>
       <c r="F21" t="n">
-        <v>29470.8551020244</v>
+        <v>29268.0095112678</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>1227</v>
       </c>
       <c r="I21" t="n">
-        <v>5608.01003713387</v>
+        <v>5596.78153170145</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>4960.71126827154</v>
+        <v>4955.57287450686</v>
       </c>
       <c r="C22" t="n">
-        <v>1809.55968576749</v>
+        <v>1808.83680174224</v>
       </c>
       <c r="D22" t="n">
-        <v>1054.47800496209</v>
+        <v>1053.68664583923</v>
       </c>
       <c r="E22" t="n">
-        <v>13401.6436065131</v>
+        <v>13354.4538781109</v>
       </c>
       <c r="F22" t="n">
-        <v>22550.2499123381</v>
+        <v>22424.262821887</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>1094</v>
       </c>
       <c r="I22" t="n">
-        <v>3866.71126827154</v>
+        <v>3861.57287450686</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>3081.51898958677</v>
+        <v>3080.08633506458</v>
       </c>
       <c r="C23" t="n">
-        <v>1082.07005096072</v>
+        <v>1081.32845744886</v>
       </c>
       <c r="D23" t="n">
-        <v>617.579430767959</v>
+        <v>616.70089750137</v>
       </c>
       <c r="E23" t="n">
-        <v>8637.14070657623</v>
+        <v>8618.67491006723</v>
       </c>
       <c r="F23" t="n">
-        <v>14812.6286661413</v>
+        <v>14755.9630332139</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>825</v>
       </c>
       <c r="I23" t="n">
-        <v>2256.51898958677</v>
+        <v>2255.08633506458</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>2769.36066911716</v>
+        <v>2768.19733064859</v>
       </c>
       <c r="C24" t="n">
-        <v>942.097535621619</v>
+        <v>941.284932345626</v>
       </c>
       <c r="D24" t="n">
-        <v>528.486061693698</v>
+        <v>527.583861245472</v>
       </c>
       <c r="E24" t="n">
-        <v>8004.18216973755</v>
+        <v>7988.56520949491</v>
       </c>
       <c r="F24" t="n">
-        <v>13946.7451965811</v>
+        <v>13896.4041606828</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>1148</v>
       </c>
       <c r="I24" t="n">
-        <v>1621.36066911716</v>
+        <v>1620.19733064859</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2664.42267913474</v>
+        <v>2662.9290534715</v>
       </c>
       <c r="C25" t="n">
-        <v>879.780861356414</v>
+        <v>878.802930506984</v>
       </c>
       <c r="D25" t="n">
-        <v>485.58649719755</v>
+        <v>484.605665507468</v>
       </c>
       <c r="E25" t="n">
-        <v>7926.25402471197</v>
+        <v>7909.79840771882</v>
       </c>
       <c r="F25" t="n">
-        <v>14018.4113753222</v>
+        <v>13965.532976089</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>2254</v>
       </c>
       <c r="I25" t="n">
-        <v>410.422679134736</v>
+        <v>408.929053471496</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2449.74016358313</v>
+        <v>2448.85245014285</v>
       </c>
       <c r="C26" t="n">
-        <v>767.101873715708</v>
+        <v>766.196424893941</v>
       </c>
       <c r="D26" t="n">
-        <v>411.322797824013</v>
+        <v>410.408631064055</v>
       </c>
       <c r="E26" t="n">
-        <v>7670.89024625696</v>
+        <v>7657.29824672527</v>
       </c>
       <c r="F26" t="n">
-        <v>13930.6511944809</v>
+        <v>13881.9439196763</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>2354</v>
       </c>
       <c r="I26" t="n">
-        <v>95.7401635831325</v>
+        <v>94.8524501428501</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2842.70529165722</v>
+        <v>2841.18133330082</v>
       </c>
       <c r="C27" t="n">
-        <v>856.233726356161</v>
+        <v>855.227836722116</v>
       </c>
       <c r="D27" t="n">
-        <v>449.53792499054</v>
+        <v>448.537449983086</v>
       </c>
       <c r="E27" t="n">
-        <v>9242.51035651498</v>
+        <v>9220.89155497036</v>
       </c>
       <c r="F27" t="n">
-        <v>17113.8737006603</v>
+        <v>17039.548313428</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>2576</v>
       </c>
       <c r="I27" t="n">
-        <v>266.705291657223</v>
+        <v>265.181333300819</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>4816.45209761314</v>
+        <v>4810.47371156501</v>
       </c>
       <c r="C28" t="n">
-        <v>1408.31189354041</v>
+        <v>1407.0540753107</v>
       </c>
       <c r="D28" t="n">
-        <v>727.713226797361</v>
+        <v>726.499271651742</v>
       </c>
       <c r="E28" t="n">
-        <v>16118.489019234</v>
+        <v>16048.9313250977</v>
       </c>
       <c r="F28" t="n">
-        <v>30294.3832398745</v>
+        <v>30080.8404592001</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>3747</v>
       </c>
       <c r="I28" t="n">
-        <v>1069.45209761314</v>
+        <v>1063.47371156501</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>4702.56907072227</v>
+        <v>4697.69269923312</v>
       </c>
       <c r="C29" t="n">
-        <v>1318.16406794878</v>
+        <v>1317.10398899085</v>
       </c>
       <c r="D29" t="n">
-        <v>665.621568703335</v>
+        <v>664.49970424043</v>
       </c>
       <c r="E29" t="n">
-        <v>16391.2331970634</v>
+        <v>16322.7581308474</v>
       </c>
       <c r="F29" t="n">
-        <v>31459.9944889116</v>
+        <v>31239.0813043399</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>3415</v>
       </c>
       <c r="I29" t="n">
-        <v>1287.56907072227</v>
+        <v>1282.69269923312</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>5339.60170735348</v>
+        <v>5332.12566821463</v>
       </c>
       <c r="C30" t="n">
-        <v>1446.91906221647</v>
+        <v>1445.58013374224</v>
       </c>
       <c r="D30" t="n">
-        <v>717.304993310085</v>
+        <v>716.037420635112</v>
       </c>
       <c r="E30" t="n">
-        <v>19229.3495845117</v>
+        <v>19133.8912177225</v>
       </c>
       <c r="F30" t="n">
-        <v>37533.113668944</v>
+        <v>37229.3542683092</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>3991</v>
       </c>
       <c r="I30" t="n">
-        <v>1348.60170735348</v>
+        <v>1341.12566821463</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>5925.07815572866</v>
+        <v>5914.75104240975</v>
       </c>
       <c r="C31" t="n">
-        <v>1547.87690293218</v>
+        <v>1546.204106504</v>
       </c>
       <c r="D31" t="n">
-        <v>752.203001110381</v>
+        <v>750.766449094946</v>
       </c>
       <c r="E31" t="n">
-        <v>22103.4668506441</v>
+        <v>21977.7611723688</v>
       </c>
       <c r="F31" t="n">
-        <v>43932.8573617925</v>
+        <v>43533.7869269421</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>4213</v>
       </c>
       <c r="I31" t="n">
-        <v>1712.07815572866</v>
+        <v>1701.75104240975</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>7297.35811777437</v>
+        <v>7281.28198284089</v>
       </c>
       <c r="C32" t="n">
-        <v>1848.20783141724</v>
+        <v>1846.23946687222</v>
       </c>
       <c r="D32" t="n">
-        <v>883.143153332383</v>
+        <v>881.59381952518</v>
       </c>
       <c r="E32" t="n">
-        <v>28047.8436350819</v>
+        <v>27856.9535604956</v>
       </c>
       <c r="F32" t="n">
-        <v>56610.7491607512</v>
+        <v>56010.4481122111</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>4234</v>
       </c>
       <c r="I32" t="n">
-        <v>3063.35811777437</v>
+        <v>3047.28198284089</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>9198.90560302081</v>
+        <v>9174.41229514783</v>
       </c>
       <c r="C33" t="n">
-        <v>2259.08717204484</v>
+        <v>2256.93200145512</v>
       </c>
       <c r="D33" t="n">
-        <v>1061.51984748457</v>
+        <v>1059.97669697894</v>
       </c>
       <c r="E33" t="n">
-        <v>36421.640664319</v>
+        <v>36129.7543533838</v>
       </c>
       <c r="F33" t="n">
-        <v>74642.2457648089</v>
+        <v>73727.2214197567</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>5355</v>
       </c>
       <c r="I33" t="n">
-        <v>3843.90560302081</v>
+        <v>3819.41229514783</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>6685.78382790766</v>
+        <v>6673.23230314838</v>
       </c>
       <c r="C34" t="n">
-        <v>1576.25820803455</v>
+        <v>1574.6389483735</v>
       </c>
       <c r="D34" t="n">
-        <v>724.218342579222</v>
+        <v>722.803594810485</v>
       </c>
       <c r="E34" t="n">
-        <v>27526.0516380239</v>
+        <v>27345.9761622178</v>
       </c>
       <c r="F34" t="n">
-        <v>57554.1073325101</v>
+        <v>56948.8683543186</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>3849</v>
       </c>
       <c r="I34" t="n">
-        <v>2836.78382790766</v>
+        <v>2824.23230314838</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>4161.67639561887</v>
+        <v>4157.3217276132</v>
       </c>
       <c r="C35" t="n">
-        <v>938.753217553777</v>
+        <v>937.405448371945</v>
       </c>
       <c r="D35" t="n">
-        <v>420.857562439843</v>
+        <v>419.671332001445</v>
       </c>
       <c r="E35" t="n">
-        <v>17871.3022168791</v>
+        <v>17789.7570786463</v>
       </c>
       <c r="F35" t="n">
-        <v>38182.4039674898</v>
+        <v>37875.7737437246</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>2594</v>
       </c>
       <c r="I35" t="n">
-        <v>1567.67639561887</v>
+        <v>1563.3217276132</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3741.89836622829</v>
+        <v>3738.36554179907</v>
       </c>
       <c r="C36" t="n">
-        <v>814.550648871087</v>
+        <v>813.204208144947</v>
       </c>
       <c r="D36" t="n">
-        <v>358.066862203604</v>
+        <v>356.940317221949</v>
       </c>
       <c r="E36" t="n">
-        <v>16624.2381288508</v>
+        <v>16553.2136827518</v>
       </c>
       <c r="F36" t="n">
-        <v>36141.931202972</v>
+        <v>35863.0473694634</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>2160</v>
       </c>
       <c r="I36" t="n">
-        <v>1581.89836622829</v>
+        <v>1578.36554179907</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3600.70201347954</v>
+        <v>3596.87399174016</v>
       </c>
       <c r="C37" t="n">
-        <v>758.103846539973</v>
+        <v>756.640952374064</v>
       </c>
       <c r="D37" t="n">
-        <v>327.179293196628</v>
+        <v>326.038348032043</v>
       </c>
       <c r="E37" t="n">
-        <v>16514.7104557533</v>
+        <v>16442.3318315754</v>
       </c>
       <c r="F37" t="n">
-        <v>36494.2441479281</v>
+        <v>36206.161470833</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>1293</v>
       </c>
       <c r="I37" t="n">
-        <v>2307.70201347954</v>
+        <v>2303.87399174016</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>3311.81896591776</v>
+        <v>3309.09816698334</v>
       </c>
       <c r="C38" t="n">
-        <v>660.596685053089</v>
+        <v>659.259674376248</v>
       </c>
       <c r="D38" t="n">
-        <v>276.699569219498</v>
+        <v>275.681363818384</v>
       </c>
       <c r="E38" t="n">
-        <v>15992.8796850731</v>
+        <v>15928.3660707759</v>
       </c>
       <c r="F38" t="n">
-        <v>36284.9591774454</v>
+        <v>36008.8650348187</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>883</v>
       </c>
       <c r="I38" t="n">
-        <v>2428.81896591776</v>
+        <v>2426.09816698334</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>3840.54249100355</v>
+        <v>3836.4197558001</v>
       </c>
       <c r="C39" t="n">
-        <v>736.12383048974</v>
+        <v>734.641273925046</v>
       </c>
       <c r="D39" t="n">
-        <v>301.687251250073</v>
+        <v>300.566393686069</v>
       </c>
       <c r="E39" t="n">
-        <v>19266.9526428931</v>
+        <v>19173.3854946071</v>
       </c>
       <c r="F39" t="n">
-        <v>44574.2173433255</v>
+        <v>44180.9437002262</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>538</v>
       </c>
       <c r="I39" t="n">
-        <v>3302.54249100355</v>
+        <v>3298.4197558001</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>6492.12035435438</v>
+        <v>6478.71258709995</v>
       </c>
       <c r="C40" t="n">
-        <v>1209.41505020409</v>
+        <v>1207.42470454068</v>
       </c>
       <c r="D40" t="n">
-        <v>488.207000764932</v>
+        <v>486.679056874976</v>
       </c>
       <c r="E40" t="n">
-        <v>33476.7788132956</v>
+        <v>33222.4560035819</v>
       </c>
       <c r="F40" t="n">
-        <v>78546.3093672897</v>
+        <v>77561.6740989543</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>821</v>
       </c>
       <c r="I40" t="n">
-        <v>5671.12035435438</v>
+        <v>5657.71258709995</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>6339.27986271981</v>
+        <v>6327.56075430665</v>
       </c>
       <c r="C41" t="n">
-        <v>1129.5260734434</v>
+        <v>1127.74045974907</v>
       </c>
       <c r="D41" t="n">
-        <v>444.887024127531</v>
+        <v>443.4699473889</v>
       </c>
       <c r="E41" t="n">
-        <v>34103.2263707278</v>
+        <v>33847.8528420477</v>
       </c>
       <c r="F41" t="n">
-        <v>81765.2366817904</v>
+        <v>80735.9348151798</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>1074</v>
       </c>
       <c r="I41" t="n">
-        <v>5265.27986271981</v>
+        <v>5253.56075430665</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>7194.06170122823</v>
+        <v>7177.65085023613</v>
       </c>
       <c r="C42" t="n">
-        <v>1236.74008888387</v>
+        <v>1234.64601193979</v>
       </c>
       <c r="D42" t="n">
-        <v>477.633571200265</v>
+        <v>476.070399835885</v>
       </c>
       <c r="E42" t="n">
-        <v>40044.9809623334</v>
+        <v>39704.7852894317</v>
       </c>
       <c r="F42" t="n">
-        <v>97697.1117150012</v>
+        <v>96331.7438990806</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>1334</v>
       </c>
       <c r="I42" t="n">
-        <v>5860.06170122823</v>
+        <v>5843.65085023613</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>7979.29159553457</v>
+        <v>7957.90091263366</v>
       </c>
       <c r="C43" t="n">
-        <v>1319.92527502079</v>
+        <v>1317.49314045343</v>
       </c>
       <c r="D43" t="n">
-        <v>499.076561977818</v>
+        <v>497.368475296173</v>
       </c>
       <c r="E43" t="n">
-        <v>46072.7390171078</v>
+        <v>45639.1123109948</v>
       </c>
       <c r="F43" t="n">
-        <v>114521.184293728</v>
+        <v>112774.801386587</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>1512</v>
       </c>
       <c r="I43" t="n">
-        <v>6467.29159553457</v>
+        <v>6445.90091263366</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>9818.52478842826</v>
+        <v>9786.55188506707</v>
       </c>
       <c r="C44" t="n">
-        <v>1572.12970741761</v>
+        <v>1569.31212266921</v>
       </c>
       <c r="D44" t="n">
-        <v>583.931897008226</v>
+        <v>582.043344763461</v>
       </c>
       <c r="E44" t="n">
-        <v>58477.6989462491</v>
+        <v>57842.5972082111</v>
       </c>
       <c r="F44" t="n">
-        <v>147670.034323654</v>
+        <v>145127.005702655</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>2767</v>
       </c>
       <c r="I44" t="n">
-        <v>7051.52478842826</v>
+        <v>7019.55188506707</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>12364.7676049652</v>
+        <v>12317.2212249447</v>
       </c>
       <c r="C45" t="n">
-        <v>1917.06710861503</v>
+        <v>1913.93227483292</v>
       </c>
       <c r="D45" t="n">
-        <v>699.593974989324</v>
+        <v>697.583009721691</v>
       </c>
       <c r="E45" t="n">
-        <v>75934.0648753807</v>
+        <v>74990.1725418622</v>
       </c>
       <c r="F45" t="n">
-        <v>194766.362844082</v>
+        <v>190994.6558659</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>4793</v>
       </c>
       <c r="I45" t="n">
-        <v>7571.76760496516</v>
+        <v>7524.22122494469</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>8999.04433744142</v>
+        <v>8973.10122126885</v>
       </c>
       <c r="C46" t="n">
-        <v>1332.36537556798</v>
+        <v>1329.94342161863</v>
       </c>
       <c r="D46" t="n">
-        <v>473.839038236826</v>
+        <v>472.160624465818</v>
       </c>
       <c r="E46" t="n">
-        <v>57724.0282664313</v>
+        <v>57112.5560062178</v>
       </c>
       <c r="F46" t="n">
-        <v>151372.026378495</v>
+        <v>148767.038626984</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>4517</v>
       </c>
       <c r="I46" t="n">
-        <v>4482.04433744142</v>
+        <v>4456.10122126885</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>5613.11146348293</v>
+        <v>5603.06514152064</v>
       </c>
       <c r="C47" t="n">
-        <v>789.966065216334</v>
+        <v>788.101009013048</v>
       </c>
       <c r="D47" t="n">
-        <v>272.964210448508</v>
+        <v>271.745329936419</v>
       </c>
       <c r="E47" t="n">
-        <v>37761.5971375076</v>
+        <v>37458.3919199112</v>
       </c>
       <c r="F47" t="n">
-        <v>101446.87382606</v>
+        <v>100022.925550016</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>4430</v>
       </c>
       <c r="I47" t="n">
-        <v>1183.11146348293</v>
+        <v>1173.06514152064</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>5049.27262093144</v>
+        <v>5041.0464080711</v>
       </c>
       <c r="C48" t="n">
-        <v>682.993373439119</v>
+        <v>681.204916962299</v>
       </c>
       <c r="D48" t="n">
-        <v>230.79684632565</v>
+        <v>229.69689479928</v>
       </c>
       <c r="E48" t="n">
-        <v>35260.3674271472</v>
+        <v>34990.7603346891</v>
       </c>
       <c r="F48" t="n">
-        <v>96538.4184155841</v>
+        <v>95220.9770093395</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>6410</v>
       </c>
       <c r="I48" t="n">
-        <v>-1360.72737906856</v>
+        <v>-1368.9535919289</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>4859.56109827302</v>
+        <v>4851.17190597664</v>
       </c>
       <c r="C49" t="n">
-        <v>633.459938165493</v>
+        <v>631.609062158125</v>
       </c>
       <c r="D49" t="n">
-        <v>209.66465486161</v>
+        <v>208.598467090865</v>
       </c>
       <c r="E49" t="n">
-        <v>35138.7605763302</v>
+        <v>34866.3175914447</v>
       </c>
       <c r="F49" t="n">
-        <v>97920.2375111228</v>
+        <v>96563.0209911315</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>9126</v>
       </c>
       <c r="I49" t="n">
-        <v>-4266.43890172698</v>
+        <v>-4274.82809402336</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
